--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111188165</v>
+        <v>111188106</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>367058.2797417908</v>
+        <v>367050.1089280251</v>
       </c>
       <c r="R2" t="n">
-        <v>6876642.060615195</v>
+        <v>6876649.905198708</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111191051</v>
+        <v>111188165</v>
       </c>
       <c r="B3" t="n">
-        <v>89410</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,25 +807,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>367080.0096928239</v>
+        <v>367058.2797417908</v>
       </c>
       <c r="R3" t="n">
-        <v>6876739.970800492</v>
+        <v>6876642.060615195</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,12 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:59</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Växer på gammal gran i fuktig skogsmiljö.</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111188106</v>
+        <v>111191235</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,21 +926,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,13 +953,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>367050.1089280251</v>
+        <v>367076.7989791847</v>
       </c>
       <c r="R4" t="n">
-        <v>6876649.905198708</v>
+        <v>6876754.204911136</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -993,7 +988,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1003,7 +998,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Växer på gran i fuktig skogsmiljö. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111191235</v>
+        <v>111191051</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>367076.7989791847</v>
+        <v>367080.0096928239</v>
       </c>
       <c r="R5" t="n">
-        <v>6876754.204911136</v>
+        <v>6876739.970800492</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Växer på gran i fuktig skogsmiljö. Kontinuitetsskog</t>
+          <t>Växer på gammal gran i fuktig skogsmiljö.</t>
         </is>
       </c>
       <c r="AD5" t="b">
